--- a/ressources/authors.xlsx
+++ b/ressources/authors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="0" windowWidth="23000" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Equipes" sheetId="1" r:id="rId1"/>
@@ -19,25 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>j.neiss@samsung.com</t>
-  </si>
-  <si>
-    <t>a.boussac@samsung.com</t>
-  </si>
-  <si>
-    <t>1B1_Q1</t>
-  </si>
-  <si>
-    <t>1B1_Q2</t>
+    <t>oldId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -62,16 +53,8 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,7 +74,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -126,20 +109,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="34"/>
   </cellXfs>
-  <cellStyles count="37">
-    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8"/>
+  <cellStyles count="36">
     <cellStyle name="Lien hypertexte visité" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -173,8 +153,8 @@
     <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -509,42 +489,1075 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="39.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" ht="16">
+      <c r="A2" s="2">
+        <v>100787003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16">
+      <c r="A3" s="2">
+        <v>100743903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16">
+      <c r="A4" s="2">
+        <v>97718327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16">
+      <c r="A5" s="2">
+        <v>105216602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16">
+      <c r="A6" s="2">
+        <v>99597964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16">
+      <c r="A7" s="2">
+        <v>97593959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16">
+      <c r="A8" s="2">
+        <v>102036447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16">
+      <c r="A9" s="2">
+        <v>98375594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16">
+      <c r="A10" s="2">
+        <v>98687622</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16">
+      <c r="A11" s="2">
+        <v>99364829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16">
+      <c r="A12" s="2">
+        <v>99077126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16">
+      <c r="A13" s="2">
+        <v>99532443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16">
+      <c r="A14" s="2">
+        <v>99597965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16">
+      <c r="A15" s="2">
+        <v>101506948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16">
+      <c r="A16" s="2">
+        <v>98804146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="16">
+      <c r="A17" s="2">
+        <v>100969293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="16">
+      <c r="A18" s="2">
+        <v>98687621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="16">
+      <c r="A19" s="2">
+        <v>99195412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="16">
+      <c r="A20" s="2">
+        <v>99195411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="16">
+      <c r="A21" s="2">
+        <v>98477864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="16">
+      <c r="A22" s="2">
+        <v>98687620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="16">
+      <c r="A23" s="2">
+        <v>100790519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="16">
+      <c r="A24" s="2">
+        <v>98599767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="16">
+      <c r="A25" s="2">
+        <v>100970620</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="16">
+      <c r="A26" s="2">
+        <v>98599768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="16">
+      <c r="A27" s="2">
+        <v>100244112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="16">
+      <c r="A28" s="2">
+        <v>102024649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="16">
+      <c r="A29" s="2">
+        <v>100743904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="16">
+      <c r="A30" s="2">
+        <v>99294114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16">
+      <c r="A31" s="2">
+        <v>99294116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16">
+      <c r="A32" s="2">
+        <v>99676885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16">
+      <c r="A33" s="2">
+        <v>99364824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16">
+      <c r="A34" s="2">
+        <v>99676886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16">
+      <c r="A35" s="2">
+        <v>99775927</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16">
+      <c r="A36" s="2">
+        <v>101872962</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16">
+      <c r="A37" s="2">
+        <v>97567061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16">
+      <c r="A38" s="2">
+        <v>98599769</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16">
+      <c r="A39" s="2">
+        <v>97636873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16">
+      <c r="A40" s="2">
+        <v>100256168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16">
+      <c r="A41" s="2">
+        <v>97593960</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16">
+      <c r="A42" s="2">
+        <v>100743908</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16">
+      <c r="A43" s="2">
+        <v>100743909</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16">
+      <c r="A44" s="2">
+        <v>107526809</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16">
+      <c r="A45" s="2">
+        <v>105346189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16">
+      <c r="A46" s="2">
+        <v>100790522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16">
+      <c r="A47" s="2">
+        <v>97567062</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16">
+      <c r="A48" s="2">
+        <v>97567063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16">
+      <c r="A49" s="2">
+        <v>99535265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16">
+      <c r="A50" s="2">
+        <v>99083473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16">
+      <c r="A51" s="2">
+        <v>100571676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16">
+      <c r="A52" s="2">
+        <v>99083382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16">
+      <c r="A53" s="2">
+        <v>99538957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="16">
+      <c r="A54" s="2">
+        <v>102158072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16">
+      <c r="A55" s="2">
+        <v>102157705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16">
+      <c r="A56" s="2">
+        <v>100790523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16">
+      <c r="A57" s="2">
+        <v>102205107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16">
+      <c r="A58" s="2">
+        <v>100790524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16">
+      <c r="A59" s="2">
+        <v>99597966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16">
+      <c r="A60" s="2">
+        <v>101841895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16">
+      <c r="A61" s="2">
+        <v>100204820</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16">
+      <c r="A62" s="2">
+        <v>99542490</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="16">
+      <c r="A63" s="2">
+        <v>99704872</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="16">
+      <c r="A64" s="2">
+        <v>99704874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16">
+      <c r="A65" s="2">
+        <v>100799182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="16">
+      <c r="A66" s="2">
+        <v>100799183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16">
+      <c r="A67" s="2">
+        <v>100244113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="16">
+      <c r="A68" s="2">
+        <v>100244114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="16">
+      <c r="A69" s="2">
+        <v>99545185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="16">
+      <c r="A70" s="2">
+        <v>100581832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16">
+      <c r="A71" s="2">
+        <v>100581919</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16">
+      <c r="A72" s="2">
+        <v>100233830</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="16">
+      <c r="A73" s="2">
+        <v>100235255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16">
+      <c r="A74" s="2">
+        <v>100581789</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16">
+      <c r="A75" s="2">
+        <v>101839162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16">
+      <c r="A76" s="2">
+        <v>101512289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="16">
+      <c r="A77" s="2">
+        <v>101513145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16">
+      <c r="A78" s="2">
+        <v>104785351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="16">
+      <c r="A79" s="2">
+        <v>101506950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="16">
+      <c r="A80" s="2">
+        <v>102894895</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="16">
+      <c r="A81" s="2">
+        <v>102183515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="16">
+      <c r="A82" s="2">
+        <v>103088006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16">
+      <c r="A83" s="2">
+        <v>105056020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="16">
+      <c r="A84" s="2">
+        <v>100731495</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="16">
+      <c r="A85" s="2">
+        <v>103088007</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16">
+      <c r="A86" s="2">
+        <v>103187005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="16">
+      <c r="A87" s="2">
+        <v>103671081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="16">
+      <c r="A88" s="2">
+        <v>103011289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="16">
+      <c r="A89" s="2">
+        <v>103011317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="16">
+      <c r="A90" s="2">
+        <v>103749741</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="16">
+      <c r="A91" s="2">
+        <v>102965200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="16">
+      <c r="A92" s="2">
+        <v>104998986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16">
+      <c r="A93" s="2">
+        <v>103011318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="16">
+      <c r="A94" s="2">
+        <v>102999953</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="16">
+      <c r="A95" s="2">
+        <v>103011319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="16">
+      <c r="A96" s="2">
+        <v>103011320</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="16">
+      <c r="A97" s="2">
+        <v>101841896</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="16">
+      <c r="A98" s="2">
+        <v>101841897</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16">
+      <c r="A99" s="2">
+        <v>103187006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="16">
+      <c r="A100" s="2">
+        <v>103479080</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="16">
+      <c r="A101" s="2">
+        <v>104591540</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="16">
+      <c r="A102" s="2">
+        <v>103006825</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="16">
+      <c r="A103" s="2">
+        <v>104559567</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="16">
+      <c r="A104" s="2">
+        <v>100743905</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="16">
+      <c r="A105" s="2">
+        <v>102951867</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="16">
+      <c r="A106" s="2">
+        <v>103730339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="16">
+      <c r="A107" s="2">
+        <v>101844474</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="16">
+      <c r="A108" s="2">
+        <v>101844715</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="16">
+      <c r="A109" s="2">
+        <v>101844676</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="16">
+      <c r="A110" s="2">
+        <v>103671083</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="16">
+      <c r="A111" s="2">
+        <v>101872965</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="16">
+      <c r="A112" s="2">
+        <v>103494886</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="16">
+      <c r="A113" s="2">
+        <v>102999955</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="16">
+      <c r="A114" s="2">
+        <v>104938054</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="16">
+      <c r="A115" s="2">
+        <v>104936059</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="16">
+      <c r="A116" s="2">
+        <v>104936062</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="16">
+      <c r="A117" s="2">
+        <v>104936066</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="16">
+      <c r="A118" s="2">
+        <v>102999956</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="16">
+      <c r="A119" s="2">
+        <v>103752937</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="16">
+      <c r="A120" s="2">
+        <v>101872967</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="16">
+      <c r="A121" s="2">
+        <v>101872968</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="16">
+      <c r="A122" s="2">
+        <v>104591636</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="16">
+      <c r="A123" s="2">
+        <v>104591637</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="16">
+      <c r="A124" s="2">
+        <v>104783192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="16">
+      <c r="A125" s="2">
+        <v>104591640</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="16">
+      <c r="A126" s="2">
+        <v>104593746</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="16">
+      <c r="A127" s="2">
+        <v>103479081</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="16">
+      <c r="A128" s="2">
+        <v>103570431</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="16">
+      <c r="A129" s="2">
+        <v>103560830</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="16">
+      <c r="A130" s="2">
+        <v>103581324</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="16">
+      <c r="A131" s="2">
+        <v>103585496</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="16">
+      <c r="A132" s="2">
+        <v>103752939</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="16">
+      <c r="A133" s="2">
+        <v>104539354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="16">
+      <c r="A134" s="2">
+        <v>103752940</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="16">
+      <c r="A135" s="2">
+        <v>103671084</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="16">
+      <c r="A136" s="2">
+        <v>103671533</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="16">
+      <c r="A137" s="2">
+        <v>103671087</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="16">
+      <c r="A138" s="2">
+        <v>104691710</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="16">
+      <c r="A139" s="2">
+        <v>103671534</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="16">
+      <c r="A140" s="2">
+        <v>103451215</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="16">
+      <c r="A141" s="2">
+        <v>102953743</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="16">
+      <c r="A142" s="2">
+        <v>101841898</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="16">
+      <c r="A143" s="2">
+        <v>102439601</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="16">
+      <c r="A144" s="2">
+        <v>103451356</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="16">
+      <c r="A145" s="2">
+        <v>103451238</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="16">
+      <c r="A146" s="2">
+        <v>103451111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="16">
+      <c r="A147" s="2">
+        <v>103611444</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="16">
+      <c r="A148" s="2">
+        <v>103615698</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="16">
+      <c r="A149" s="2">
+        <v>103615699</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="16">
+      <c r="A150" s="2">
+        <v>103629459</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="16">
+      <c r="A151" s="2">
+        <v>103640532</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="16">
+      <c r="A152" s="2">
+        <v>104598334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="16">
+      <c r="A153" s="2">
+        <v>106922975</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="16">
+      <c r="A154" s="2">
+        <v>104638868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="16">
+      <c r="A155" s="2">
+        <v>104599814</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="16">
+      <c r="A156" s="2">
+        <v>103807180</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="16">
+      <c r="A157" s="2">
+        <v>103807258</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="16">
+      <c r="A158" s="2">
+        <v>105706129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="16">
+      <c r="A159" s="2">
+        <v>104998987</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="16">
+      <c r="A160" s="2">
+        <v>104998989</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16">
+      <c r="A161" s="2">
+        <v>104547666</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="16">
+      <c r="A162" s="2">
+        <v>104547614</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="16">
+      <c r="A163" s="2">
+        <v>104946084</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16">
+      <c r="A164" s="2">
+        <v>105274929</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16">
+      <c r="A165" s="2">
+        <v>104547118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="16">
+      <c r="A166" s="2">
+        <v>104559569</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="16">
+      <c r="A167" s="2">
+        <v>104559572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="16">
+      <c r="A168" s="2">
+        <v>104947027</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="16">
+      <c r="A169" s="2">
+        <v>104785353</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="16">
+      <c r="A170" s="2">
+        <v>104785352</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="16">
+      <c r="A171" s="2">
+        <v>105108368</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="16">
+      <c r="A172" s="2">
+        <v>104559575</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="16">
+      <c r="A173" s="2">
+        <v>105108369</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="16">
+      <c r="A174" s="2">
+        <v>105108371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="16">
+      <c r="A175" s="2">
+        <v>104691898</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="16">
+      <c r="A176" s="2">
+        <v>104998991</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="16">
+      <c r="A177" s="2">
+        <v>104998992</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="16">
+      <c r="A178" s="2">
+        <v>105039539</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="16">
+      <c r="A179" s="2">
+        <v>105039541</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="16">
+      <c r="A180" s="2">
+        <v>104936068</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="16">
+      <c r="A181" s="2">
+        <v>105125998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="16">
+      <c r="A182" s="2">
+        <v>104608937</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="16">
+      <c r="A183" s="2">
+        <v>105127604</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="16">
+      <c r="A184" s="2">
+        <v>104657091</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="16">
+      <c r="A185" s="2">
+        <v>104657185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="16">
+      <c r="A186" s="2">
+        <v>105337280</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="16">
+      <c r="A187" s="2">
+        <v>105275240</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="16">
+      <c r="A188" s="2">
+        <v>104657036</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="16">
+      <c r="A189" s="2">
+        <v>104937325</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="16">
+      <c r="A190" s="2">
+        <v>104937324</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="16">
+      <c r="A191" s="2">
+        <v>104937326</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="16">
+      <c r="A192" s="2">
+        <v>105178938</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="16">
+      <c r="A193" s="2">
+        <v>104782920</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="16">
+      <c r="A194" s="2">
+        <v>105039542</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="16">
+      <c r="A195" s="2">
+        <v>104828092</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="16">
+      <c r="A196" s="2">
+        <v>104828093</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="16">
+      <c r="A197" s="2">
+        <v>104785354</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="16">
+      <c r="A198" s="2">
+        <v>105333897</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="16">
+      <c r="A199" s="2">
+        <v>104754793</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="16">
+      <c r="A200" s="2">
+        <v>104754964</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="16">
+      <c r="A201" s="2">
+        <v>104745906</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="16">
+      <c r="A202" s="2">
+        <v>104759108</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="16">
+      <c r="A203" s="2">
+        <v>104828094</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="16">
+      <c r="A204" s="2">
+        <v>104872300</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="16">
+      <c r="A205" s="2">
+        <v>105017446</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="16">
+      <c r="A206" s="2">
+        <v>104755076</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="16">
+      <c r="A207" s="2">
+        <v>105039544</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="16">
+      <c r="A208" s="2">
+        <v>105108372</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="16">
+      <c r="A209" s="2">
+        <v>105039548</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="16">
+      <c r="A210" s="2">
+        <v>105108373</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="16">
+      <c r="A211" s="2">
+        <v>105122163</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
